--- a/Veda_Patwardhan_Letter_Deadlines.xlsx
+++ b/Veda_Patwardhan_Letter_Deadlines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vedavati\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8403B0F9-6515-4228-8666-21B11E036C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19941E1C-8F90-4C77-A2E2-71C6B6AF091C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{338F5B5C-EC65-4AA9-BE03-096C754FAB23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Organization Name</t>
   </si>
@@ -277,6 +277,14 @@
 Writing skills; Analytical skills; Ability to form new and creative ideas and research questions;
 Ability to work in an interdisciplinary environment; Referees may provide any additional, related comments that they believe will help reviewers evaluate the merit of the applicant.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected candidates possess:
+a strong record of academic training
+a commitment to population and development work
+the demonstrated ability to work independently
+leadership potential
+Bell Fellows examine a broad range of critical issues in the field of population and development studies from multidisciplinary perspectives. </t>
   </si>
 </sst>
 </file>
@@ -665,8 +673,8 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -939,6 +947,9 @@
       <c r="E10" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>68</v>
       </c>

--- a/Veda_Patwardhan_Letter_Deadlines.xlsx
+++ b/Veda_Patwardhan_Letter_Deadlines.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vedavati\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1471AAB-C002-4C98-AFB3-92A8C35ABC91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A19B4F6-7631-4C13-96D6-28D565057CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{338F5B5C-EC65-4AA9-BE03-096C754FAB23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{338F5B5C-EC65-4AA9-BE03-096C754FAB23}"/>
   </bookViews>
   <sheets>
-    <sheet name="JOE_EJM" sheetId="1" r:id="rId1"/>
-    <sheet name="OTHER" sheetId="2" r:id="rId2"/>
+    <sheet name="OTHER" sheetId="2" r:id="rId1"/>
+    <sheet name="JOE_EJM" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Organization Name</t>
   </si>
@@ -243,9 +244,6 @@
     <t>Only 2 recommendation letters needed - Leigh &amp; MK.</t>
   </si>
   <si>
-    <t>Request sent to you on 11/05/2020</t>
-  </si>
-  <si>
     <t>I will send you a request through JOE; they ask me to apply for the position on IMPAQs website before requesting letters. "Reference letters may be addressed to Hiring Committee"</t>
   </si>
   <si>
@@ -286,6 +284,9 @@
 the demonstrated ability to work independently
 leadership potential
 Bell Fellows examine a broad range of critical issues in the field of population and development studies from multidisciplinary perspectives. </t>
+  </si>
+  <si>
+    <t>Send request to Leigh and MK</t>
   </si>
 </sst>
 </file>
@@ -670,12 +671,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568EF55B-7606-4B39-A5CB-8904B8E057C3}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44165</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44169</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44173</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{2CDD714B-4CBA-420E-B31F-937589A5E18B}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{EB85AF44-215D-4C14-84CD-0EE5FDA6306B}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{DA17B1DE-7EAD-4B6E-8FDE-24950F1382C7}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://harvard.az1.qualtrics.com/jfe/form/SV_cABsaFHp6Ih1rAV" xr:uid="{AE205CDC-2E43-45CD-ACA9-157F48FE6488}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89399292-945E-4B51-9D3F-2A4D1944E9F9}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -729,7 +892,7 @@
         <v>44150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -807,7 +970,7 @@
         <v>44165</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -837,19 +1000,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568EF55B-7606-4B39-A5CB-8904B8E057C3}">
-  <dimension ref="A1:I6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72643990-0301-4A51-9056-98DA050381D9}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="32.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -881,149 +1044,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44166</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44166</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4">
-        <v>44169</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="4">
-        <v>44173</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{2CDD714B-4CBA-420E-B31F-937589A5E18B}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{EB85AF44-215D-4C14-84CD-0EE5FDA6306B}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{DA17B1DE-7EAD-4B6E-8FDE-24950F1382C7}"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://harvard.az1.qualtrics.com/jfe/form/SV_cABsaFHp6Ih1rAV" xr:uid="{AE205CDC-2E43-45CD-ACA9-157F48FE6488}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Veda_Patwardhan_Letter_Deadlines.xlsx
+++ b/Veda_Patwardhan_Letter_Deadlines.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vedavati\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19941E1C-8F90-4C77-A2E2-71C6B6AF091C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4DED55-337C-4C07-8D41-F65B7CB51CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{338F5B5C-EC65-4AA9-BE03-096C754FAB23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{338F5B5C-EC65-4AA9-BE03-096C754FAB23}"/>
   </bookViews>
   <sheets>
-    <sheet name="Letter Requests" sheetId="1" r:id="rId1"/>
+    <sheet name="OTHER" sheetId="2" r:id="rId1"/>
+    <sheet name="JOE_EJM" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Organization Name</t>
   </si>
@@ -242,9 +244,6 @@
     <t>Only 2 recommendation letters needed - Leigh &amp; MK.</t>
   </si>
   <si>
-    <t>Request sent to you on 11/05/2020</t>
-  </si>
-  <si>
     <t>I will send you a request through JOE; they ask me to apply for the position on IMPAQs website before requesting letters. "Reference letters may be addressed to Hiring Committee"</t>
   </si>
   <si>
@@ -285,6 +284,9 @@
 the demonstrated ability to work independently
 leadership potential
 Bell Fellows examine a broad range of critical issues in the field of population and development studies from multidisciplinary perspectives. </t>
+  </si>
+  <si>
+    <t>Send request to Leigh and MK</t>
   </si>
 </sst>
 </file>
@@ -669,12 +671,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568EF55B-7606-4B39-A5CB-8904B8E057C3}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44165</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44169</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44173</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{2CDD714B-4CBA-420E-B31F-937589A5E18B}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{EB85AF44-215D-4C14-84CD-0EE5FDA6306B}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{DA17B1DE-7EAD-4B6E-8FDE-24950F1382C7}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://harvard.az1.qualtrics.com/jfe/form/SV_cABsaFHp6Ih1rAV" xr:uid="{AE205CDC-2E43-45CD-ACA9-157F48FE6488}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89399292-945E-4B51-9D3F-2A4D1944E9F9}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -728,7 +892,7 @@
         <v>44150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -806,7 +970,7 @@
         <v>44165</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -822,142 +986,6 @@
       </c>
       <c r="H5" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="4">
-        <v>44165</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="4">
-        <v>44166</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44166</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44169</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44173</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -967,11 +995,85 @@
     <hyperlink ref="E4" r:id="rId3" display="https://www.aeaweb.org/joe/listing.php?JOE_ID=2020-02_111465592&amp;q=eNplj0FuwkAMRe_idZDSSLDIASpV6g0QsoYZN0wxnsiegALi7nVasurS79vf_z_gM1vNMth70Qv0D8iCIdZ8JeihhQbONN-KJjQKGk8OnRn5RhHo97D1cQeHBr6JoZeJuYFsNi3nXdu1m7bzjaJ5yBL4458SyyRVZ1Qafh3_HCxcXCnhV-FEaiuMQVJOoRJa1HA5Mq2KUiSpWITnFfGrFnp2Ujy64NWc1WmJjnf_zePodLu0HMPgbm_P5w8HLVt4" xr:uid="{83090458-DEC5-4C23-8006-3152E7821D64}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{064693E9-838F-4DF3-9507-E9D487E3A03A}"/>
     <hyperlink ref="E3" r:id="rId5" display="https://www.aeaweb.org/joe/listing.php?JOE_ID=2020-02_111465829&amp;q=eNplj0Fqw0AMRe-itQvGkC58gEKhNyhFKDOKO62iMdI4xYTcPXIbr7rU-9LX_1d4K96KTv5S7QzjFYpcIqVWLgwj9NDBN68_1TI6k6XPgMGcY6MqjO9wiPEZPjr4YoFRF5EOivuynQ_90D_1Q2xUK1NRktd_SqqLNlvRePp1_HNwunDGU5XM5jtMpLlkaoyejM5H4V0xTqwNq8q6I3nUwsjOhscQolqwtmzRkeK3zHPQw9ZypunhdrvdARq-XFzp" xr:uid="{35F8AECA-F74D-4AC0-AFC9-84BC8E7B3061}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{2CDD714B-4CBA-420E-B31F-937589A5E18B}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{EB85AF44-215D-4C14-84CD-0EE5FDA6306B}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{DA17B1DE-7EAD-4B6E-8FDE-24950F1382C7}"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://harvard.az1.qualtrics.com/jfe/form/SV_cABsaFHp6Ih1rAV" xr:uid="{AE205CDC-2E43-45CD-ACA9-157F48FE6488}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72643990-0301-4A51-9056-98DA050381D9}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="32.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44166</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Veda_Patwardhan_Letter_Deadlines.xlsx
+++ b/Veda_Patwardhan_Letter_Deadlines.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vedavati\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4DED55-337C-4C07-8D41-F65B7CB51CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C76339-C204-4C96-9C6A-AD6B1C89656E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{338F5B5C-EC65-4AA9-BE03-096C754FAB23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{338F5B5C-EC65-4AA9-BE03-096C754FAB23}"/>
   </bookViews>
   <sheets>
-    <sheet name="OTHER" sheetId="2" r:id="rId1"/>
-    <sheet name="JOE_EJM" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="NEED LETTERS JOE_EJM" sheetId="1" r:id="rId1"/>
+    <sheet name="OTHER" sheetId="2" r:id="rId2"/>
+    <sheet name="FELLOWSHIPS" sheetId="3" r:id="rId3"/>
+    <sheet name="JOBS THAT DONT NEED LETTERS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t>Organization Name</t>
   </si>
@@ -91,9 +92,6 @@
   </si>
   <si>
     <t>analytical skills; prospects for publication; research communication skills</t>
-  </si>
-  <si>
-    <t>Request sent to you through JOE on 11/05/2020</t>
   </si>
   <si>
     <t>Washington, DC</t>
@@ -287,6 +285,54 @@
   </si>
   <si>
     <t>Send request to Leigh and MK</t>
+  </si>
+  <si>
+    <t>JPAL</t>
+  </si>
+  <si>
+    <t>OEM</t>
+  </si>
+  <si>
+    <t>MPIDR</t>
+  </si>
+  <si>
+    <t>Kiel Institute</t>
+  </si>
+  <si>
+    <t>GDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Houston </t>
+  </si>
+  <si>
+    <t>Postal Address</t>
+  </si>
+  <si>
+    <t>Letters of Recommendations emailed to AEAjobs@acumenllc.com</t>
+  </si>
+  <si>
+    <t>Acumen LLC</t>
+  </si>
+  <si>
+    <t>Policy Associate</t>
+  </si>
+  <si>
+    <t>https://www.aeaweb.org/joe/listing.php?JOE_ID=2020-02_111466000&amp;q=eNplj1EKwkAMRO-S7wql4E8PIAjeYYm7sa7GbEm2ShHvbpQWBP_Cm8wk84RDtpplsF3RG_RPyBIw1nxcJ-ihhQauND-KpmCEGs8OnRn5RhHoZWJu4EK8jtls-ji7tms3bee7RfOQBXn_p8QySdU5KA0_YYZ3SuFUOJHaCiNKygkrBYuKtyPTqihFkhqK8LxcIl4aBX-bNBxdgK93LFY9G_02j6PT7afgiMOS9nq9AYw_XFyP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request sent to you through JOE </t>
+  </si>
+  <si>
+    <t>1776 Main Street
+P.O. Box 2138
+Santa Monica, CA 90407-2138</t>
+  </si>
+  <si>
+    <t>10 Fawcett Street, Suite 5
+Cambridge, MA 02138-1168</t>
+  </si>
+  <si>
+    <t>1818 H Street, NW Washington, DC 20433 USA</t>
   </si>
 </sst>
 </file>
@@ -339,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -357,6 +403,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -671,11 +722,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89399292-945E-4B51-9D3F-2A4D1944E9F9}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="12.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="9">
+        <v>44150</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9">
+        <v>44150</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="9">
+        <v>44157</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44165</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://econjobmarket.org/" xr:uid="{DE63659A-6B9A-4052-9AC1-AA45EF20712C}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{8687B821-72FB-4818-8355-BDF835316928}"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://www.aeaweb.org/joe/listing.php?JOE_ID=2020-02_111465592&amp;q=eNplj0FuwkAMRe_idZDSSLDIASpV6g0QsoYZN0wxnsiegALi7nVasurS79vf_z_gM1vNMth70Qv0D8iCIdZ8JeihhQbONN-KJjQKGk8OnRn5RhHo97D1cQeHBr6JoZeJuYFsNi3nXdu1m7bzjaJ5yBL4458SyyRVZ1Qafh3_HCxcXCnhV-FEaiuMQVJOoRJa1HA5Mq2KUiSpWITnFfGrFnp2Ujy64NWc1WmJjnf_zePodLu0HMPgbm_P5w8HLVt4" xr:uid="{83090458-DEC5-4C23-8006-3152E7821D64}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{064693E9-838F-4DF3-9507-E9D487E3A03A}"/>
+    <hyperlink ref="F3" r:id="rId5" display="https://www.aeaweb.org/joe/listing.php?JOE_ID=2020-02_111465829&amp;q=eNplj0Fqw0AMRe-itQvGkC58gEKhNyhFKDOKO62iMdI4xYTcPXIbr7rU-9LX_1d4K96KTv5S7QzjFYpcIqVWLgwj9NDBN68_1TI6k6XPgMGcY6MqjO9wiPEZPjr4YoFRF5EOivuynQ_90D_1Q2xUK1NRktd_SqqLNlvRePp1_HNwunDGU5XM5jtMpLlkaoyejM5H4V0xTqwNq8q6I3nUwsjOhscQolqwtmzRkeK3zHPQw9ZypunhdrvdARq-XFzp" xr:uid="{35F8AECA-F74D-4AC0-AFC9-84BC8E7B3061}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568EF55B-7606-4B39-A5CB-8904B8E057C3}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -711,114 +943,131 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4">
         <v>44165</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4">
         <v>44166</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>44169</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4">
         <v>44173</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>64</v>
+    </row>
+    <row r="6" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44227</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -827,176 +1076,10 @@
     <hyperlink ref="E4" r:id="rId2" xr:uid="{EB85AF44-215D-4C14-84CD-0EE5FDA6306B}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{DA17B1DE-7EAD-4B6E-8FDE-24950F1382C7}"/>
     <hyperlink ref="C5" r:id="rId4" display="https://harvard.az1.qualtrics.com/jfe/form/SV_cABsaFHp6Ih1rAV" xr:uid="{AE205CDC-2E43-45CD-ACA9-157F48FE6488}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://www.aeaweb.org/joe/listing.php?JOE_ID=2020-02_111466000&amp;q=eNplj1EKwkAMRO-S7wql4E8PIAjeYYm7sa7GbEm2ShHvbpQWBP_Cm8wk84RDtpplsF3RG_RPyBIw1nxcJ-ihhQauND-KpmCEGs8OnRn5RhHoZWJu4EK8jtls-ji7tms3bee7RfOQBXn_p8QySdU5KA0_YYZ3SuFUOJHaCiNKygkrBYuKtyPTqihFkhqK8LxcIl4aBX-bNBxdgK93LFY9G_02j6PT7afgiMOS9nq9AYw_XFyP" xr:uid="{9384175D-F5F9-473A-B9BF-874AF206F904}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89399292-945E-4B51-9D3F-2A4D1944E9F9}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.36328125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
-        <v>44150</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44150</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44157</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4">
-        <v>44165</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://econjobmarket.org/" xr:uid="{DE63659A-6B9A-4052-9AC1-AA45EF20712C}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{8687B821-72FB-4818-8355-BDF835316928}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://www.aeaweb.org/joe/listing.php?JOE_ID=2020-02_111465592&amp;q=eNplj0FuwkAMRe_idZDSSLDIASpV6g0QsoYZN0wxnsiegALi7nVasurS79vf_z_gM1vNMth70Qv0D8iCIdZ8JeihhQbONN-KJjQKGk8OnRn5RhHo97D1cQeHBr6JoZeJuYFsNi3nXdu1m7bzjaJ5yBL4458SyyRVZ1Qafh3_HCxcXCnhV-FEaiuMQVJOoRJa1HA5Mq2KUiSpWITnFfGrFnp2Ujy64NWc1WmJjnf_zePodLu0HMPgbm_P5w8HLVt4" xr:uid="{83090458-DEC5-4C23-8006-3152E7821D64}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{064693E9-838F-4DF3-9507-E9D487E3A03A}"/>
-    <hyperlink ref="E3" r:id="rId5" display="https://www.aeaweb.org/joe/listing.php?JOE_ID=2020-02_111465829&amp;q=eNplj0Fqw0AMRe-itQvGkC58gEKhNyhFKDOKO62iMdI4xYTcPXIbr7rU-9LX_1d4K96KTv5S7QzjFYpcIqVWLgwj9NDBN68_1TI6k6XPgMGcY6MqjO9wiPEZPjr4YoFRF5EOivuynQ_90D_1Q2xUK1NRktd_SqqLNlvRePp1_HNwunDGU5XM5jtMpLlkaoyejM5H4V0xTqwNq8q6I3nUwsjOhscQolqwtmzRkeK3zHPQw9ZypunhdrvdARq-XFzp" xr:uid="{35F8AECA-F74D-4AC0-AFC9-84BC8E7B3061}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1005,7 +1088,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1041,36 +1124,85 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4">
         <v>44166</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD82A569-BA83-4A03-96D5-2B673D65F3F2}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="7">
+        <v>44166</v>
       </c>
     </row>
   </sheetData>
